--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,6 +486,25 @@
         <v>50</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +505,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +543,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>200</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -1,35 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarsandberg/Documents/Programmering/flossan/Scraper/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95787A28-2414-F64A-A710-86E3E8D1FDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scape_bought_by_country" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="scape_bought_by_country" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Scape Dark - US</t>
+  </si>
+  <si>
+    <t>Scape Light - US</t>
+  </si>
+  <si>
+    <t>Scape Dark - DE</t>
+  </si>
+  <si>
+    <t>Scape Light - DE</t>
+  </si>
+  <si>
+    <t>2025-10-02</t>
+  </si>
+  <si>
+    <t>2025-10-04</t>
+  </si>
+  <si>
+    <t>2025-10-05</t>
+  </si>
+  <si>
+    <t>2025-10-06</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,80 +84,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -409,156 +386,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Scape Dark - US</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Scape Light - US</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Scape Dark - DE</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Scape Light - DE</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>200</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>200</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>100</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>50</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>200</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
     </row>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -1,71 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarsandberg/Documents/Programmering/flossan/Scraper/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95787A28-2414-F64A-A710-86E3E8D1FDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="scape_bought_by_country" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scape_bought_by_country" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Scape Dark - US</t>
-  </si>
-  <si>
-    <t>Scape Light - US</t>
-  </si>
-  <si>
-    <t>Scape Dark - DE</t>
-  </si>
-  <si>
-    <t>Scape Light - DE</t>
-  </si>
-  <si>
-    <t>2025-10-02</t>
-  </si>
-  <si>
-    <t>2025-10-04</t>
-  </si>
-  <si>
-    <t>2025-10-05</t>
-  </si>
-  <si>
-    <t>2025-10-06</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -386,112 +408,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col width="10.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Scape Dark - US</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Scape Light - US</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Scape Dark - DE</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Scape Light - DE</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>200</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>200</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>100</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
@@ -564,6 +564,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
@@ -583,6 +583,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -1,34 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarsandberg/Documents/Programmering/flossan/Scraper/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0CF8C4-073C-D548-A8DE-5F865E2B778F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scape_bought_by_country" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="scape_bought_by_country" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Scape Dark - US</t>
+  </si>
+  <si>
+    <t>Scape Light - US</t>
+  </si>
+  <si>
+    <t>Scape Dark - DE</t>
+  </si>
+  <si>
+    <t>Scape Light - DE</t>
+  </si>
+  <si>
+    <t>2025-10-02</t>
+  </si>
+  <si>
+    <t>2025-10-04</t>
+  </si>
+  <si>
+    <t>2025-10-05</t>
+  </si>
+  <si>
+    <t>2025-10-06</t>
+  </si>
+  <si>
+    <t>2025-10-07</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +87,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,197 +389,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A7" sqref="A7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="10.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Scape Dark - US</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Scape Light - US</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Scape Dark - DE</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Scape Light - DE</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>200</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>200</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>100</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>50</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
     </row>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -1,74 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarsandberg/Documents/Programmering/flossan/Scraper/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0CF8C4-073C-D548-A8DE-5F865E2B778F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="scape_bought_by_country" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scape_bought_by_country" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Scape Dark - US</t>
-  </si>
-  <si>
-    <t>Scape Light - US</t>
-  </si>
-  <si>
-    <t>Scape Dark - DE</t>
-  </si>
-  <si>
-    <t>Scape Light - DE</t>
-  </si>
-  <si>
-    <t>2025-10-02</t>
-  </si>
-  <si>
-    <t>2025-10-04</t>
-  </si>
-  <si>
-    <t>2025-10-05</t>
-  </si>
-  <si>
-    <t>2025-10-06</t>
-  </si>
-  <si>
-    <t>2025-10-07</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -389,129 +408,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col width="10.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Scape Dark - US</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Scape Light - US</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Scape Dark - DE</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Scape Light - DE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>200</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>200</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>100</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -583,6 +583,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -602,6 +602,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -621,6 +621,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-10-11</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>200</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -640,6 +640,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>200</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -659,6 +659,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -678,6 +678,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -697,6 +697,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -716,6 +716,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -735,6 +735,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -754,6 +754,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>300</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -773,6 +773,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -792,6 +792,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -811,6 +811,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -830,6 +830,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>200</v>
+      </c>
+      <c r="C21" t="n">
+        <v>200</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -849,6 +849,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -868,6 +868,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -887,6 +887,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -906,6 +906,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -925,6 +925,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -944,6 +944,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -963,6 +963,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -982,6 +982,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1001,6 +1001,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1020,6 +1020,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1039,6 +1039,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1058,6 +1058,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1077,6 +1077,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>300</v>
+      </c>
+      <c r="C34" t="n">
+        <v>300</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1096,6 +1096,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1115,6 +1115,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1134,6 +1134,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1153,6 +1153,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1172,6 +1172,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1191,6 +1191,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1210,6 +1210,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1229,6 +1229,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1248,6 +1248,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>300</v>
+      </c>
+      <c r="C43" t="n">
+        <v>300</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1267,6 +1267,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>300</v>
+      </c>
+      <c r="C44" t="n">
+        <v>300</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1286,6 +1286,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1305,6 +1305,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1324,6 +1324,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1343,6 +1343,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>300</v>
+      </c>
+      <c r="C48" t="n">
+        <v>300</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1362,6 +1362,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>300</v>
+      </c>
+      <c r="C49" t="n">
+        <v>300</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1381,6 +1381,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>300</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1400,6 +1400,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>300</v>
+      </c>
+      <c r="C51" t="n">
+        <v>300</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1419,6 +1419,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1438,6 +1438,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>400</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1457,6 +1457,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1476,6 +1476,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1495,6 +1495,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1514,6 +1514,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>500</v>
+      </c>
+      <c r="C57" t="n">
+        <v>500</v>
+      </c>
+      <c r="D57" t="n">
+        <v>50</v>
+      </c>
+      <c r="E57" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1533,6 +1533,25 @@
         <v>50</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>500</v>
+      </c>
+      <c r="C58" t="n">
+        <v>500</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1552,6 +1552,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>500</v>
+      </c>
+      <c r="C59" t="n">
+        <v>500</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1571,6 +1571,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>500</v>
+      </c>
+      <c r="C60" t="n">
+        <v>500</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1590,6 +1590,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>500</v>
+      </c>
+      <c r="C61" t="n">
+        <v>500</v>
+      </c>
+      <c r="D61" t="n">
+        <v>50</v>
+      </c>
+      <c r="E61" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1609,6 +1609,25 @@
         <v>100</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>500</v>
+      </c>
+      <c r="C62" t="n">
+        <v>500</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1628,6 +1628,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>500</v>
+      </c>
+      <c r="C63" t="n">
+        <v>500</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1647,6 +1647,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/scape_bought_by_country.xlsx
+++ b/data/scape_bought_by_country.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E8"/>
@@ -1666,6 +1666,25 @@
         <v>0</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
